--- a/data/trans_orig/P75-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P75-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C85118CE-E1A6-4FA0-BCAD-18EB6A3C6713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05B6195-37BB-402E-BA33-3BEF7CA8D7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7AD0CF12-55B0-4802-9664-3C5331B8D594}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CFE254-8B21-4E2B-91BB-224DB77EAE1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="312">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -84,55 +84,55 @@
     <t>26,71%</t>
   </si>
   <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>28,78%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>27,76%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>71,22%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>72,24%</t>
   </si>
   <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -153,514 +153,532 @@
     <t>0,29%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>99,56%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>10,68%</t>
+    <t>10,72%</t>
   </si>
   <si>
     <t>15,61%</t>
@@ -669,19 +687,19 @@
     <t>86,82%</t>
   </si>
   <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>86,95%</t>
@@ -690,277 +708,271 @@
     <t>84,39%</t>
   </si>
   <si>
-    <t>89,32%</t>
+    <t>89,28%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
   </si>
   <si>
     <t>37,05%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>65,04%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>62,95%</t>
   </si>
   <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>96,68%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>68,73%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B07B83-F08A-462C-B42F-1A968A399601}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B905FE2-CC5A-4574-8625-513CD9A0B9B8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2751,10 +2763,10 @@
         <v>140</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2781,13 @@
         <v>2498408</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>2393</v>
@@ -2784,28 +2796,28 @@
         <v>2569583</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>4751</v>
       </c>
       <c r="N29" s="7">
-        <v>5067991</v>
+        <v>5067992</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,7 +2859,7 @@
         <v>6432</v>
       </c>
       <c r="N30" s="7">
-        <v>6906371</v>
+        <v>6906372</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -2861,7 +2873,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA23723-97DA-4980-A19A-168A97A2C8B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CEF1D2-BB72-40A0-A9A9-3D559057D3BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,7 +2914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3009,13 +3021,13 @@
         <v>76961</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -3024,13 +3036,13 @@
         <v>71119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -3039,13 +3051,13 @@
         <v>148081</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3072,13 @@
         <v>216800</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>207</v>
@@ -3075,13 +3087,13 @@
         <v>217584</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>406</v>
@@ -3090,13 +3102,13 @@
         <v>434383</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3176,13 @@
         <v>2149</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3179,13 +3191,13 @@
         <v>7802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3194,13 +3206,13 @@
         <v>9950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,10 +3227,10 @@
         <v>500426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>41</v>
@@ -3230,13 +3242,13 @@
         <v>515282</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
@@ -3245,13 +3257,13 @@
         <v>1015709</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3331,13 @@
         <v>2807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3334,13 +3346,13 @@
         <v>3964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3349,13 +3361,13 @@
         <v>6771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3382,13 @@
         <v>315758</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -3385,13 +3397,13 @@
         <v>332345</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -3400,13 +3412,13 @@
         <v>648103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3486,13 @@
         <v>48776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3489,13 +3501,13 @@
         <v>50064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -3504,13 +3516,13 @@
         <v>98840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3537,13 @@
         <v>321188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>310</v>
@@ -3540,13 +3552,13 @@
         <v>337219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -3555,13 +3567,13 @@
         <v>658407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3641,13 @@
         <v>73844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -3644,13 +3656,13 @@
         <v>85421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -3659,13 +3671,13 @@
         <v>159265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3692,13 @@
         <v>137377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -3695,13 +3707,13 @@
         <v>133166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -3710,13 +3722,13 @@
         <v>270543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3796,13 @@
         <v>8640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3799,13 +3811,13 @@
         <v>15600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -3814,13 +3826,13 @@
         <v>24240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3847,13 @@
         <v>254483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -3850,13 +3862,13 @@
         <v>257515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -3865,13 +3877,13 @@
         <v>511998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3951,13 @@
         <v>23299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3954,13 +3966,13 @@
         <v>37441</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -3969,13 +3981,13 @@
         <v>60740</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +4002,13 @@
         <v>633259</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>612</v>
@@ -4005,13 +4017,13 @@
         <v>653853</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4020,13 +4032,13 @@
         <v>1287112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4106,13 @@
         <v>243489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -4109,13 +4121,13 @@
         <v>255972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -4124,13 +4136,13 @@
         <v>499461</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4157,13 @@
         <v>535094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H26" s="7">
         <v>518</v>
@@ -4160,13 +4172,13 @@
         <v>570195</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M26" s="7">
         <v>1033</v>
@@ -4175,13 +4187,13 @@
         <v>1105289</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4261,13 @@
         <v>479965</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>504</v>
@@ -4264,13 +4276,13 @@
         <v>527383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M28" s="7">
         <v>963</v>
@@ -4279,13 +4291,13 @@
         <v>1007348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4312,13 @@
         <v>2914385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H29" s="7">
         <v>2834</v>
@@ -4315,13 +4327,13 @@
         <v>3017159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M29" s="7">
         <v>5606</v>
@@ -4330,13 +4342,13 @@
         <v>5931544</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,7 +4404,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P75-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05B6195-37BB-402E-BA33-3BEF7CA8D7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A20072F-63B7-4448-8C90-DD399FEF5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CFE254-8B21-4E2B-91BB-224DB77EAE1C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{987234A7-5B78-486F-8539-A1B71E73E770}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="306">
   <si>
     <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2012 (Tasa respuesta: 98,85%)</t>
   </si>
@@ -84,16 +84,16 @@
     <t>26,71%</t>
   </si>
   <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>28,78%</t>
   </si>
   <si>
-    <t>24,7%</t>
+    <t>24,64%</t>
   </si>
   <si>
     <t>33,03%</t>
@@ -102,19 +102,19 @@
     <t>27,76%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>73,29%</t>
   </si>
   <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>71,22%</t>
@@ -123,16 +123,16 @@
     <t>66,97%</t>
   </si>
   <si>
-    <t>75,3%</t>
+    <t>75,36%</t>
   </si>
   <si>
     <t>72,24%</t>
   </si>
   <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -153,13 +153,13 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>1,63%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -171,13 +171,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>98,37%</t>
+    <t>98,55%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,1%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -186,55 +186,55 @@
     <t>17,84%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
   </si>
   <si>
     <t>18,19%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>81,46%</t>
   </si>
   <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>81,81%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -243,88 +243,82 @@
     <t>82,99%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>84,88%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,1%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,77%</t>
+    <t>98,84%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -333,55 +327,55 @@
     <t>9,29%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>91,84%</t>
   </si>
   <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
     <t>89,43%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>92,96%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -390,64 +384,64 @@
     <t>52,79%</t>
   </si>
   <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
   </si>
   <si>
     <t>52,25%</t>
   </si>
   <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
   </si>
   <si>
     <t>52,52%</t>
   </si>
   <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>47,21%</t>
   </si>
   <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>47,75%</t>
   </si>
   <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>47,48%</t>
   </si>
   <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
   </si>
   <si>
     <t>26,87%</t>
@@ -462,19 +456,19 @@
     <t>26,62%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>73,65%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
   </si>
   <si>
     <t>73,13%</t>
@@ -489,118 +483,112 @@
     <t>73,38%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según si aceptaria que le llamasemos para participar en futuras investigaciones desde la Escuela Andaluza de Salud Pública en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>25,42%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>74,58%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,71%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>2,96%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>98,66%</t>
+    <t>98,29%</t>
   </si>
   <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>97,04%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -609,31 +597,25 @@
     <t>0,27%</t>
   </si>
   <si>
-    <t>2,36%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>2,92%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,64%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -642,337 +624,337 @@
     <t>98,82%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>97,08%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>86,95%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>34,96%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>39,08%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
   </si>
   <si>
     <t>37,05%</t>
   </si>
   <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
   </si>
   <si>
     <t>65,04%</t>
   </si>
   <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>60,92%</t>
   </si>
   <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>62,95%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
   </si>
   <si>
     <t>3,28%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>96,72%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>96,68%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>31,27%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>68,73%</t>
   </si>
   <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>85,48%</t>
   </si>
   <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B905FE2-CC5A-4574-8625-513CD9A0B9B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09821D8D-1832-4A6B-8177-50E3EDCCA41B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2271,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2280,13 +2262,13 @@
         <v>1924</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2295,13 +2277,13 @@
         <v>1924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2319,7 +2301,7 @@
         <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -2331,10 +2313,10 @@
         <v>277159</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>41</v>
@@ -2346,10 +2328,10 @@
         <v>549211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>41</v>
@@ -2408,7 +2390,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2420,13 +2402,13 @@
         <v>61285</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -2435,13 +2417,13 @@
         <v>56113</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>104</v>
@@ -2450,13 +2432,13 @@
         <v>117398</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2453,13 @@
         <v>598561</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>580</v>
@@ -2486,13 +2468,13 @@
         <v>631419</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>1141</v>
@@ -2501,13 +2483,13 @@
         <v>1229980</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,7 +2545,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2575,13 +2557,13 @@
         <v>406240</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>385</v>
@@ -2590,13 +2572,13 @@
         <v>423355</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>757</v>
@@ -2605,13 +2587,13 @@
         <v>829595</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,13 +2608,13 @@
         <v>363281</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H26" s="7">
         <v>360</v>
@@ -2641,13 +2623,13 @@
         <v>386828</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M26" s="7">
         <v>696</v>
@@ -2656,13 +2638,13 @@
         <v>750109</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2712,13 @@
         <v>894080</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H28" s="7">
         <v>864</v>
@@ -2745,13 +2727,13 @@
         <v>944300</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>1681</v>
@@ -2760,13 +2742,13 @@
         <v>1838380</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2763,13 @@
         <v>2498408</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>2393</v>
@@ -2796,28 +2778,28 @@
         <v>2569583</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>4751</v>
       </c>
       <c r="N29" s="7">
-        <v>5067992</v>
+        <v>5067991</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2841,7 @@
         <v>6432</v>
       </c>
       <c r="N30" s="7">
-        <v>6906372</v>
+        <v>6906371</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -2873,7 +2855,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CEF1D2-BB72-40A0-A9A9-3D559057D3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74017977-24A7-46EF-B4A4-0D93E595A249}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,7 +2896,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3021,13 +3003,13 @@
         <v>76961</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -3036,13 +3018,13 @@
         <v>71119</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>137</v>
@@ -3051,13 +3033,13 @@
         <v>148081</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3054,13 @@
         <v>216800</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>207</v>
@@ -3087,13 +3069,13 @@
         <v>217584</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>406</v>
@@ -3102,13 +3084,13 @@
         <v>434383</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3158,13 @@
         <v>2149</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3191,13 +3173,13 @@
         <v>7802</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -3206,13 +3188,13 @@
         <v>9950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,10 +3209,10 @@
         <v>500426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>41</v>
@@ -3242,13 +3224,13 @@
         <v>515282</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>950</v>
@@ -3257,13 +3239,13 @@
         <v>1015709</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3313,13 @@
         <v>2807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3346,13 +3328,13 @@
         <v>3964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3361,13 +3343,13 @@
         <v>6771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3364,13 @@
         <v>315758</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -3397,13 +3379,13 @@
         <v>332345</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>660</v>
@@ -3412,13 +3394,13 @@
         <v>648103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3468,13 @@
         <v>48776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3501,13 +3483,13 @@
         <v>50064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -3516,13 +3498,13 @@
         <v>98840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3519,13 @@
         <v>321188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>310</v>
@@ -3552,13 +3534,13 @@
         <v>337219</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>615</v>
@@ -3567,13 +3549,13 @@
         <v>658407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3623,13 @@
         <v>73844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -3656,13 +3638,13 @@
         <v>85421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -3671,13 +3653,13 @@
         <v>159265</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3674,13 @@
         <v>137377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -3707,13 +3689,13 @@
         <v>133166</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>271</v>
@@ -3722,13 +3704,13 @@
         <v>270543</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,13 +3778,13 @@
         <v>8640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3811,13 +3793,13 @@
         <v>15600</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>23</v>
@@ -3826,13 +3808,13 @@
         <v>24240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3829,13 @@
         <v>254483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>248</v>
@@ -3862,13 +3844,13 @@
         <v>257515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>499</v>
@@ -3877,13 +3859,13 @@
         <v>511998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3921,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3951,13 +3933,13 @@
         <v>23299</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -3966,13 +3948,13 @@
         <v>37441</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -3981,13 +3963,13 @@
         <v>60740</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +3984,13 @@
         <v>633259</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>612</v>
@@ -4017,13 +3999,13 @@
         <v>653853</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>1172</v>
@@ -4032,13 +4014,13 @@
         <v>1287112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,7 +4076,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4106,13 +4088,13 @@
         <v>243489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>237</v>
@@ -4121,13 +4103,13 @@
         <v>255972</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>472</v>
@@ -4136,13 +4118,13 @@
         <v>499461</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4139,13 @@
         <v>535094</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>518</v>
@@ -4172,13 +4154,13 @@
         <v>570195</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>1033</v>
@@ -4187,13 +4169,13 @@
         <v>1105289</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4243,13 @@
         <v>479965</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H28" s="7">
         <v>504</v>
@@ -4276,13 +4258,13 @@
         <v>527383</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>963</v>
@@ -4291,13 +4273,13 @@
         <v>1007348</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4294,13 @@
         <v>2914385</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>2834</v>
@@ -4327,13 +4309,13 @@
         <v>3017159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M29" s="7">
         <v>5606</v>
@@ -4342,13 +4324,13 @@
         <v>5931544</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,7 +4386,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
